--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A561BDE-A431-45A1-8561-32E440403AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B1435-C847-4CA5-8451-E59E657D14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -163,9 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>buffAction</t>
-  </si>
-  <si>
     <t>$type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,14 +174,6 @@
     <t>BuffActionNone</t>
   </si>
   <si>
-    <t>PhysicalAttackAdd;11;13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,6 +235,325 @@
   </si>
   <si>
     <t>Buff_AutoGetGold1</t>
+  </si>
+  <si>
+    <t>*buffActions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_HitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击产生击退</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击退</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_BeHitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;MotionUnitId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyMotionHorizontal_Forward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>Line3</t>
+  </si>
+  <si>
+    <t>Buff_Line2</t>
+  </si>
+  <si>
+    <t>Buff_Line3</t>
+  </si>
+  <si>
+    <t>Buff_Slow</t>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyAttribute</t>
+  </si>
+  <si>
+    <t>加攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackUp</t>
+  </si>
+  <si>
+    <t>Buff_AttackUp</t>
+  </si>
+  <si>
+    <t>BuffActionModifySkillAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_CDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队友减cd1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCDDown2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队友减cd2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队友减cd3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;-50;0;-50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;-10;0;"";NormalAttack;-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;-20;0;"";NormalAttack;-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;-50;0;"";NormalAttack;-50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalPct;0;10;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackAdd;11;13;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackPct;11;13;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -695,10 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -708,9 +1017,10 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="7" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -767,7 +1077,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2"/>
@@ -799,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -820,7 +1130,7 @@
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -831,10 +1141,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -894,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
@@ -903,10 +1213,10 @@
         <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -923,7 +1233,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -945,125 +1255,488 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D9" si="0">B8&amp;"_"&amp;C8</f>
+      <c r="B8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D13" si="0">B10&amp;"_"&amp;C10</f>
         <v>BuffAdd_Line1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11" si="1">B11&amp;"_"&amp;C11</f>
+        <v>BuffAdd_Line2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="2">B12&amp;"_"&amp;C12</f>
+        <v>BuffAdd_Line3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>BuffAdd_Circle1</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="3">B15&amp;"_"&amp;C15</f>
+        <v>BuffAdd_AttackGetGold1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11" si="1">B11&amp;"_"&amp;C11</f>
-        <v>BuffAdd_AttackGetGold1</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="4">B16&amp;"_"&amp;C16</f>
+        <v>BuffAdd_AutoGetGold1</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11">
+      <c r="G16">
         <v>-1</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12" si="2">B12&amp;"_"&amp;C12</f>
-        <v>BuffAdd_AutoGetGold1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G12">
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="5">B18&amp;"_"&amp;C18</f>
+        <v>BuffAdd_HitBack1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D25" si="6">B19&amp;"_"&amp;C19</f>
+        <v>BuffAdd_BeHitBack1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="6"/>
+        <v>BuffAdd_Slow</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="str">
+        <f>B21&amp;"_"&amp;C21</f>
+        <v>BuffAdd_CDDown1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22" si="7">B22&amp;"_"&amp;C22</f>
+        <v>BuffAdd_CDDown2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="8">B23&amp;"_"&amp;C23</f>
+        <v>BuffAdd_CDDown3</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="6"/>
+        <v>BuffAdd_AttackUp</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="6"/>
+        <v>BuffAdd_AddCDDown1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D27" si="9">B26&amp;"_"&amp;C26</f>
+        <v>BuffAdd_AddCDDown2</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="9"/>
+        <v>BuffAdd_AddCDDown3</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B1435-C847-4CA5-8451-E59E657D14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04994B3-8294-4043-BE20-CB98799DA82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -544,15 +533,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PhysicalAttackFinalPct;0;10;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PhysicalAttackAdd;11;13;100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PhysicalAttackPct;11;13;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalPct;0;20;1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1007,23 +996,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1047,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1082,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1117,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1148,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1177,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1220,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -1258,10 +1247,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="F8" s="7"/>
       <c r="I8" s="6"/>
@@ -1269,10 +1258,10 @@
         <v>30</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="F9" s="7"/>
       <c r="I9" s="6"/>
@@ -1280,10 +1269,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1300,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1339,7 +1328,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1356,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1395,7 +1384,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1412,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1440,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1465,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1597,7 +1586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1654,10 +1643,10 @@
         <v>57</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1684,7 +1673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
@@ -1711,7 +1700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>34</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04994B3-8294-4043-BE20-CB98799DA82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EE24B-B5B3-4D5D-8339-3C990791B655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -542,6 +542,43 @@
   </si>
   <si>
     <t>PhysicalAttackFinalPct;0;20;1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Circle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增buff：持续圆形攻击3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Circle3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -992,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1384,47 +1421,47 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15" si="3">B15&amp;"_"&amp;C15</f>
-        <v>BuffAdd_AttackGetGold1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="3">B14&amp;"_"&amp;C14</f>
+        <v>BuffAdd_Circle3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ref="D16" si="4">B16&amp;"_"&amp;C16</f>
-        <v>BuffAdd_AutoGetGold1</v>
+        <v>BuffAdd_AttackGetGold1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -1433,82 +1470,79 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ref="D18" si="5">B18&amp;"_"&amp;C18</f>
-        <v>BuffAdd_HitBack1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" si="5">B17&amp;"_"&amp;C17</f>
+        <v>BuffAdd_AutoGetGold1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17">
         <v>-1</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="6"/>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D25" si="6">B19&amp;"_"&amp;C19</f>
-        <v>BuffAdd_BeHitBack1</v>
+        <f t="shared" ref="D19" si="6">B19&amp;"_"&amp;C19</f>
+        <v>BuffAdd_HitBack1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="6"/>
-        <v>BuffAdd_Slow</v>
-      </c>
-      <c r="E20" s="6"/>
+        <f t="shared" ref="D20:D26" si="7">B20&amp;"_"&amp;C20</f>
+        <v>BuffAdd_BeHitBack1</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1516,14 +1550,14 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
+      <c r="I20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -1531,29 +1565,30 @@
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D21" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
-        <v>BuffAdd_CDDown1</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_Slow</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>61</v>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -1561,14 +1596,14 @@
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22" si="7">B22&amp;"_"&amp;C22</f>
-        <v>BuffAdd_CDDown2</v>
+        <f>B22&amp;"_"&amp;C22</f>
+        <v>BuffAdd_CDDown1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1577,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -1591,14 +1626,14 @@
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ref="D23" si="8">B23&amp;"_"&amp;C23</f>
-        <v>BuffAdd_CDDown3</v>
+        <v>BuffAdd_CDDown2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1607,70 +1642,73 @@
         <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
-        <v>59</v>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="6"/>
-        <v>BuffAdd_AttackUp</v>
+        <f t="shared" ref="D24" si="9">B24&amp;"_"&amp;C24</f>
+        <v>BuffAdd_CDDown3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" t="s">
-        <v>57</v>
+      <c r="I24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>72</v>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="6"/>
-        <v>BuffAdd_AddCDDown1</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_AttackUp</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>77</v>
+      <c r="I25" t="s">
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1678,14 +1716,14 @@
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:D27" si="9">B26&amp;"_"&amp;C26</f>
-        <v>BuffAdd_AddCDDown2</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_AddCDDown1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1694,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
@@ -1705,14 +1743,14 @@
         <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="9"/>
-        <v>BuffAdd_AddCDDown3</v>
+        <f t="shared" ref="D27:D29" si="10">B27&amp;"_"&amp;C27</f>
+        <v>BuffAdd_AddCDDown2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1721,11 +1759,66 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddCDDown3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_SeedHeal1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EE24B-B5B3-4D5D-8339-3C990791B655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB124E-7B7D-40EE-80AF-FC129C3FBE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="218">
   <si>
     <t>##var</t>
   </si>
@@ -122,76 +135,76 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>duration</t>
   </si>
   <si>
     <t>*buffList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>addStack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>buffId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增的层数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BuffActionNone</t>
   </si>
   <si>
     <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>buff要做的事情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>list,AddBuffInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Circle1</t>
   </si>
   <si>
     <t>新增buff：持续直线攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增buff：持续圆形攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Line1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BuffActionModifyAttribute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Line1</t>
@@ -201,11 +214,11 @@
   </si>
   <si>
     <t>持续时间(s),-1表示永久</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AttackGetGold1</t>
@@ -227,39 +240,39 @@
   </si>
   <si>
     <t>*buffActions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HitBack1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_HitBack1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BeHitBack1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻击产生击退</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>被击退</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_BeHitBack1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2;0;MotionUnitId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BuffActionModifyMotionHorizontal_Forward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Line2</t>
@@ -278,18 +291,18 @@
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Slow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BuffActionModifyAttribute</t>
   </si>
   <si>
     <t>加攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AttackUp</t>
@@ -299,19 +312,19 @@
   </si>
   <si>
     <t>BuffActionModifySkillAttribute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>减cd2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>减cd3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>减cd1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,7 +341,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -345,7 +358,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -362,7 +375,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +392,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -396,7 +409,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,11 +426,11 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为队友减cd1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -434,11 +447,11 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AddCDDown2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,15 +468,15 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为队友减cd2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为队友减cd3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -480,7 +493,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -497,7 +510,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -514,47 +527,47 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SpeedFinalPct;-50;0;-50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SkillCDFinalPct;-10;0;"";NormalAttack;-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SkillCDFinalPct;-20;0;"";NormalAttack;-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SkillCDFinalPct;-50;0;"";NormalAttack;-50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PhysicalAttackAdd;11;13;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PhysicalAttackPct;11;13;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PhysicalAttackFinalPct;0;20;1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>恢复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_SeedHeal1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SeedHeal1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -571,27 +584,626 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增buff：持续圆形攻击3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Circle3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金塔1</t>
+  </si>
+  <si>
+    <t>炼金塔2</t>
+  </si>
+  <si>
+    <t>炼金塔3</t>
+  </si>
+  <si>
+    <t>火图腾1</t>
+  </si>
+  <si>
+    <t>火图腾2</t>
+  </si>
+  <si>
+    <t>火图腾3</t>
+  </si>
+  <si>
+    <t>连击斧1</t>
+  </si>
+  <si>
+    <t>连击斧2</t>
+  </si>
+  <si>
+    <t>连击斧3</t>
+  </si>
+  <si>
+    <t>巫毒塔1</t>
+  </si>
+  <si>
+    <t>巫毒塔2</t>
+  </si>
+  <si>
+    <t>巫毒塔3</t>
+  </si>
+  <si>
+    <t>灾厄塔1</t>
+  </si>
+  <si>
+    <t>灾厄塔2</t>
+  </si>
+  <si>
+    <t>灾厄塔3</t>
+  </si>
+  <si>
+    <t>加钱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方加暴击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方连击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方攻击加额外伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd</t>
+  </si>
+  <si>
+    <t>TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>TowerFire1</t>
+  </si>
+  <si>
+    <t>TowerFire2</t>
+  </si>
+  <si>
+    <t>TowerFire3</t>
+  </si>
+  <si>
+    <t>TowerLianJi1</t>
+  </si>
+  <si>
+    <t>TowerLianJi2</t>
+  </si>
+  <si>
+    <t>TowerLianJi3</t>
+  </si>
+  <si>
+    <t>Towerwitch1</t>
+  </si>
+  <si>
+    <t>Towerwitch2</t>
+  </si>
+  <si>
+    <t>Towerwitch3</t>
+  </si>
+  <si>
+    <t>TowerZaiE1</t>
+  </si>
+  <si>
+    <t>TowerZaiE2</t>
+  </si>
+  <si>
+    <t>TowerZaiE3</t>
+  </si>
+  <si>
+    <t>水图腾1</t>
+  </si>
+  <si>
+    <t>水图腾2</t>
+  </si>
+  <si>
+    <t>水图腾3</t>
+  </si>
+  <si>
+    <t>TowerWater1</t>
+  </si>
+  <si>
+    <t>TowerWater2</t>
+  </si>
+  <si>
+    <t>TowerWater3</t>
+  </si>
+  <si>
+    <t>敌人眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;-100;0;-100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerScorpio1</t>
+  </si>
+  <si>
+    <t>TowerScorpio2</t>
+  </si>
+  <si>
+    <t>TowerScorpio3</t>
+  </si>
+  <si>
+    <t>TowerFireBall1</t>
+  </si>
+  <si>
+    <t>TowerFireBall2</t>
+  </si>
+  <si>
+    <t>TowerFireBall3</t>
+  </si>
+  <si>
+    <t>火球塔1</t>
+  </si>
+  <si>
+    <t>火球塔2</t>
+  </si>
+  <si>
+    <t>火球塔3</t>
+  </si>
+  <si>
+    <t>毒蝎塔1</t>
+  </si>
+  <si>
+    <t>毒蝎塔2</t>
+  </si>
+  <si>
+    <t>毒蝎塔3</t>
+  </si>
+  <si>
+    <t>单体毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体灼烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>Buff_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>Buff_TowerScorpio3</t>
+  </si>
+  <si>
+    <t>Buff_TowerFireBall1</t>
+  </si>
+  <si>
+    <t>Buff_TowerFireBall2</t>
+  </si>
+  <si>
+    <t>Buff_TowerFireBall3</t>
+  </si>
+  <si>
+    <t>TowerCurse1</t>
+  </si>
+  <si>
+    <t>TowerCurse2</t>
+  </si>
+  <si>
+    <t>TowerCurse3</t>
+  </si>
+  <si>
+    <t>诅咒塔1</t>
+  </si>
+  <si>
+    <t>诅咒塔2</t>
+  </si>
+  <si>
+    <t>诅咒塔3</t>
+  </si>
+  <si>
+    <t>敌军弱化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TowerCurse1</t>
+  </si>
+  <si>
+    <t>Buff_TowerCurse2</t>
+  </si>
+  <si>
+    <t>Buff_TowerCurse3</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Towerwitch1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Towerwitch2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Towerwitch3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>巫毒塔附魔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒塔附魔2</t>
+  </si>
+  <si>
+    <t>巫毒塔附魔3</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerwitch1</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerwitch2</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerwitch3</t>
+  </si>
+  <si>
+    <t>火图腾附魔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾附魔2</t>
+  </si>
+  <si>
+    <t>火图腾附魔3</t>
+  </si>
+  <si>
+    <t>AddTowerFire1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTowerFire2</t>
+  </si>
+  <si>
+    <t>AddTowerFire3</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerFire1</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerFire2</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerFire3</t>
+  </si>
+  <si>
+    <t>CriticalStrikeRateFinalAdd;100;0;100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerLianJi1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerLianJi2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerLianJi3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>连击斧附魔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击斧附魔2</t>
+  </si>
+  <si>
+    <t>连击斧附魔3</t>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_AddTowerLianJi1</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerLianJi2</t>
+  </si>
+  <si>
+    <t>Buff_AddTowerLianJi3</t>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;-99;0;"";NormalAttack;-99</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾厄塔附魔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾厄塔附魔2</t>
+  </si>
+  <si>
+    <t>灾厄塔附魔3</t>
+  </si>
+  <si>
+    <t>AddTowerZaiE1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTowerZaiE2</t>
+  </si>
+  <si>
+    <t>AddTowerZaiE3</t>
+  </si>
+  <si>
+    <t>敌方debuff重置</t>
+  </si>
+  <si>
+    <t>debuff重置</t>
+  </si>
+  <si>
+    <t>BuffAdd_HuoYan1</t>
+  </si>
+  <si>
+    <t>火焰塔灼烧buff1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_HuoYan1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增buff：持续圆形攻击2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Circle2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalStrikeRateFinalAdd;25;0;100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalStrikeRateFinalAdd;50;0;100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalAdd;7290;0;7290</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalAdd;810;0;810</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackFinalAdd;90;0;90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReliefFinalPct;-50;0;-50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReliefFinalPct;-100;0;-100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReliefFinalPct;-200;0;-200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,6 +1240,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -717,39 +1344,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1029,24 +1658,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1064,13 +1695,13 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1102,10 +1733,10 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="13"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1134,13 +1765,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -1317,14 +1948,14 @@
         <v>29</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D13" si="0">B10&amp;"_"&amp;C10</f>
+        <f t="shared" ref="D10:D14" si="0">B10&amp;"_"&amp;C10</f>
         <v>BuffAdd_Line1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1983,7 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1380,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1408,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1426,98 +2057,118 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14" si="3">B14&amp;"_"&amp;C14</f>
-        <v>BuffAdd_Circle3</v>
+        <f t="shared" si="0"/>
+        <v>BuffAdd_Circle2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16" si="4">B16&amp;"_"&amp;C16</f>
-        <v>BuffAdd_AttackGetGold1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>37</v>
+      <c r="C15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="3">B15&amp;"_"&amp;C15</f>
+        <v>BuffAdd_Circle3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="11">
+        <v>10</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17" si="5">B17&amp;"_"&amp;C17</f>
-        <v>BuffAdd_AutoGetGold1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="4">B18&amp;"_"&amp;C18</f>
+        <v>BuffAdd_AttackGetGold1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19" si="6">B19&amp;"_"&amp;C19</f>
-        <v>BuffAdd_HitBack1</v>
+        <f t="shared" ref="D19" si="5">B19&amp;"_"&amp;C19</f>
+        <v>BuffAdd_AutoGetGold1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -1526,99 +2177,66 @@
         <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
       </c>
       <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ref="D20:D26" si="7">B20&amp;"_"&amp;C20</f>
-        <v>BuffAdd_BeHitBack1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="7"/>
-        <v>BuffAdd_Slow</v>
-      </c>
-      <c r="E21" s="6"/>
+        <f t="shared" ref="D21" si="6">B21&amp;"_"&amp;C21</f>
+        <v>BuffAdd_HitBack1</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="I21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D22" t="str">
-        <f>B22&amp;"_"&amp;C22</f>
-        <v>BuffAdd_CDDown1</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>64</v>
+        <f t="shared" ref="D22:D28" si="7">B22&amp;"_"&amp;C22</f>
+        <v>BuffAdd_BeHitBack1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -1626,29 +2244,30 @@
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23" si="8">B23&amp;"_"&amp;C23</f>
-        <v>BuffAdd_CDDown2</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_Slow</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>61</v>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -1656,14 +2275,14 @@
         <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24" si="9">B24&amp;"_"&amp;C24</f>
-        <v>BuffAdd_CDDown3</v>
+        <f>B24&amp;"_"&amp;C24</f>
+        <v>BuffAdd_CDDown1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1672,43 +2291,43 @@
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>61</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="7"/>
-        <v>BuffAdd_AttackUp</v>
+        <f t="shared" ref="D25" si="8">B25&amp;"_"&amp;C25</f>
+        <v>BuffAdd_CDDown2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>57</v>
+      <c r="I25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1716,53 +2335,59 @@
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="7"/>
-        <v>BuffAdd_AddCDDown1</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>71</v>
+        <f t="shared" ref="D26" si="9">B26&amp;"_"&amp;C26</f>
+        <v>BuffAdd_CDDown3</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>73</v>
+      <c r="C27" t="s">
+        <v>59</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D29" si="10">B27&amp;"_"&amp;C27</f>
-        <v>BuffAdd_AddCDDown2</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_AttackUp</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>78</v>
+      <c r="I27" t="s">
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1770,14 +2395,14 @@
         <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="10"/>
-        <v>BuffAdd_AddCDDown3</v>
+        <f t="shared" si="7"/>
+        <v>BuffAdd_AddCDDown1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -1786,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -1797,28 +2422,1318 @@
         <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29:D71" si="10">B29&amp;"_"&amp;C29</f>
+        <v>BuffAdd_AddCDDown2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddCDDown3</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="10"/>
         <v>BuffAdd_SeedHeal1</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>-1</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerAlchemy1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f>"Buff_"&amp;C33</f>
+        <v>Buff_TowerAlchemy1</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerAlchemy2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ref="I34:I62" si="11">"Buff_"&amp;C34</f>
+        <v>Buff_TowerAlchemy2</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerAlchemy3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerAlchemy3</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFire1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerFire1</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFire2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerFire2</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFire3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerFire3</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39:D41" si="12">B39&amp;"_"&amp;C39</f>
+        <v>BuffAdd_AddTowerFire1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="12"/>
+        <v>BuffAdd_AddTowerFire2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>BuffAdd_AddTowerFire3</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerLianJi1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerLianJi1</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerLianJi2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerLianJi2</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerLianJi3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerLianJi3</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerLianJi1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerLianJi2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerLianJi3</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_Towerwitch1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_Towerwitch1</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_Towerwitch2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_Towerwitch2</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_Towerwitch3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_Towerwitch3</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerwitch1</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerwitch2</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_AddTowerwitch3</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerZaiE1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerZaiE1</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerZaiE2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerZaiE2</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerZaiE3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerZaiE3</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ref="D57:D59" si="13">B57&amp;"_"&amp;C57</f>
+        <v>BuffAdd_AddTowerZaiE1</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" ref="I57:I59" si="14">"Buff_"&amp;C57</f>
+        <v>Buff_AddTowerZaiE1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="13"/>
+        <v>BuffAdd_AddTowerZaiE2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="14"/>
+        <v>Buff_AddTowerZaiE2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="13"/>
+        <v>BuffAdd_AddTowerZaiE3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="14"/>
+        <v>Buff_AddTowerZaiE3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerWater1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerWater1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerWater2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerWater2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerWater3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="11"/>
+        <v>Buff_TowerWater3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerScorpio1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerScorpio2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>151</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerScorpio3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>152</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFireBall1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFireBall2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerFireBall3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>155</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerCurse1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>163</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerCurse2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>164</v>
+      </c>
+      <c r="J70" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="10"/>
+        <v>BuffAdd_TowerCurse3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>165</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1826,7 +3741,7 @@
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G3:K3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803E3C62-9AA6-47EC-AA67-C27D32367F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AD0F9-F5B8-4D3E-A88E-E9F520F8E90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="400">
   <si>
     <t>##var</t>
   </si>
@@ -97,9 +110,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>list,AddBuffInfo</t>
-  </si>
-  <si>
     <t>$type</t>
   </si>
   <si>
@@ -166,9 +176,6 @@
     <t>PhysicalAttackAdd;11;13;100</t>
   </si>
   <si>
-    <t>PhysicalAttackPct;11;13;100</t>
-  </si>
-  <si>
     <t>新增buff：持续直线攻击</t>
   </si>
   <si>
@@ -200,15 +207,6 @@
   </si>
   <si>
     <t>Buff_Circle3</t>
-  </si>
-  <si>
-    <t>BuffAdd_HuoYan1</t>
-  </si>
-  <si>
-    <t>火焰塔灼烧buff1</t>
-  </si>
-  <si>
-    <t>Buff_HuoYan1</t>
   </si>
   <si>
     <t>攻击偷钱</t>
@@ -659,10 +657,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SkillCDFinalPct;-70;0;"";NormalAttack;-70</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillCDFinalPct;-50;0;"";NormalAttack;-50</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1404,6 +1398,63 @@
   </si>
   <si>
     <t>SpeedBase;2;0;2</t>
+  </si>
+  <si>
+    <t>BuffActionModifyAttributeByCircleWaveIndex</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_WaveHpUp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_WaveSpeedUp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_WaveSpeedUp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,AddBuffInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_WaveHpUp</t>
+  </si>
+  <si>
+    <t>无限模式循环刷怪加血</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式循环刷怪加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Line3_Fire</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰塔灼烧buff3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Line3_Fire</t>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;-60;0;"";NormalAttack;-60</t>
+  </si>
+  <si>
+    <t>SpeedFinalPct;0;5;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct;0;5;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct;0;5;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1615,528 +1666,7 @@
     <cellStyle name="常规 3" xfId="3" xr:uid="{D05F55D3-5A6C-44CF-B2C3-F303A7FE8276}"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2407,11 +1937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U146"/>
+  <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2537,10 +2067,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2557,12 +2087,12 @@
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2584,31 +2114,31 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -2625,10 +2155,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2637,18 +2167,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -2657,18 +2187,18 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -2677,18 +2207,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -2697,18 +2227,18 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -2717,18 +2247,18 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -2737,18 +2267,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -2757,18 +2287,18 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -2777,18 +2307,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -2797,18 +2327,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -2817,18 +2347,18 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -2837,18 +2367,18 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -2857,18 +2387,18 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -2877,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2897,18 +2427,18 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2917,18 +2447,18 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -2937,18 +2467,18 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -2957,18 +2487,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2977,18 +2507,18 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2997,18 +2527,18 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -3017,18 +2547,18 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -3037,18 +2567,18 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -3057,18 +2587,18 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -3077,18 +2607,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -3097,21 +2627,21 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -3120,21 +2650,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -3143,21 +2673,21 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -3166,21 +2696,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -3189,41 +2719,55 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H35" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36">
-        <v>-1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="B36" s="12"/>
+      <c r="D36" s="8"/>
+      <c r="G36" s="12"/>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>385</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3232,38 +2776,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38">
-        <v>-1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
+        <v>387</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -3272,18 +2799,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -3292,18 +2819,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -3312,18 +2839,18 @@
         <v>1</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -3332,18 +2859,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>330</v>
+        <v>299</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -3352,18 +2879,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>330</v>
+        <v>300</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E44">
         <v>-1</v>
@@ -3372,18 +2899,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>330</v>
+        <v>301</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -3392,18 +2919,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -3412,18 +2939,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -3432,18 +2959,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -3452,18 +2979,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -3472,58 +2999,58 @@
         <v>1</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D50" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E50">
-        <v>-1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E51">
-        <v>-1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E52">
         <v>-1</v>
@@ -3532,18 +3059,18 @@
         <v>1</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E53">
         <v>-1</v>
@@ -3552,18 +3079,18 @@
         <v>1</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -3572,18 +3099,18 @@
         <v>1</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -3592,18 +3119,18 @@
         <v>1</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E56">
         <v>-1</v>
@@ -3612,18 +3139,18 @@
         <v>1</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -3632,18 +3159,18 @@
         <v>1</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -3652,18 +3179,18 @@
         <v>1</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -3672,78 +3199,78 @@
         <v>1</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>354</v>
+        <v>371</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>354</v>
+        <v>372</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>354</v>
+        <v>373</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -3752,18 +3279,18 @@
         <v>1</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -3772,18 +3299,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3792,18 +3319,18 @@
         <v>1</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -3812,18 +3339,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -3832,87 +3359,78 @@
         <v>1</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>376</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>376</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>376</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E71">
         <v>8</v>
@@ -3921,21 +3439,21 @@
         <v>1</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3944,21 +3462,21 @@
         <v>1</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E73">
         <v>8</v>
@@ -3967,221 +3485,204 @@
         <v>1</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77">
         <v>2</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="H76" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="12"/>
-      <c r="D77" s="8"/>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>221</v>
+      <c r="B78" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>23</v>
+        <v>381</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>20</v>
-      </c>
-      <c r="G78" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H78" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>26</v>
+      <c r="I78" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D79" s="8"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>27</v>
+      <c r="B79" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="12"/>
       <c r="D80" s="8"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81">
-        <v>0.5</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" t="s">
-        <v>30</v>
-      </c>
+      <c r="D81" s="8"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E82">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83">
-        <v>0.5</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" t="s">
-        <v>30</v>
-      </c>
+      <c r="D83" s="8"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84">
-        <v>0.5</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84" t="s">
-        <v>30</v>
-      </c>
+      <c r="D84" s="8"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E85">
         <v>0.5</v>
@@ -4190,19 +3691,19 @@
         <v>1</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I85" s="7"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E86">
         <v>0.5</v>
@@ -4211,263 +3712,255 @@
         <v>1</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="3">
-        <v>10</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H87" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I90" s="7"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92">
-        <v>-1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I92" s="7"/>
+    <row r="91" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="7"/>
+        <v>223</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>53</v>
+      <c r="G94" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="H94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" t="s">
-        <v>25</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I94" s="7"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96" s="7"/>
+        <v>224</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96" t="s">
-        <v>53</v>
-      </c>
-      <c r="H96" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="G96" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>54</v>
+        <v>225</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>57</v>
+        <v>226</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>56</v>
+      <c r="G98" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>237</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>59</v>
+        <v>227</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>56</v>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>61</v>
+        <v>228</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -4476,149 +3969,173 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>239</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>64</v>
+        <v>229</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H101" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>66</v>
+        <v>230</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H102" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>68</v>
+        <v>231</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H103" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="106" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="I107" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>-1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106">
+        <v>-1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <v>-1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="108" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>155</v>
+        <v>236</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E108" s="4">
         <v>-1</v>
@@ -4626,195 +4143,162 @@
       <c r="F108" s="4">
         <v>1</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H108" t="s">
-        <v>30</v>
+      <c r="G108" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
     </row>
     <row r="109" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>154</v>
+        <v>237</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E109" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="4">
         <v>2</v>
       </c>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H109" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="8"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>247</v>
-      </c>
-      <c r="C111" t="s">
-        <v>74</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111">
-        <v>-1</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="s">
-        <v>248</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112">
-        <v>-1</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>250</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E113">
-        <v>-1</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>252</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>79</v>
-      </c>
-      <c r="H114" t="s">
-        <v>25</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="D114" s="8"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>81</v>
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>69</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>82</v>
-      </c>
-      <c r="H115" t="s">
-        <v>25</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>83</v>
+        <v>242</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>84</v>
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>71</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
-      </c>
-      <c r="H116" t="s">
-        <v>25</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>86</v>
+        <v>244</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E117">
         <v>-1</v>
@@ -4823,145 +4307,145 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>257</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>30</v>
+        <v>246</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>258</v>
-      </c>
-      <c r="C118" t="s">
-        <v>89</v>
+        <v>247</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>259</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" t="s">
-        <v>90</v>
+        <v>248</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>261</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>95</v>
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E121">
         <v>-1</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>96</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>94</v>
+        <v>251</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>97</v>
+        <v>252</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E122">
         <v>-1</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>98</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>94</v>
+        <v>253</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E123">
         <v>-1</v>
@@ -4970,145 +4454,145 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>266</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>30</v>
+        <v>255</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>267</v>
-      </c>
-      <c r="C124" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E124">
         <v>-1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>268</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>269</v>
-      </c>
-      <c r="C125" t="s">
-        <v>102</v>
+        <v>257</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E125">
         <v>-1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>270</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>104</v>
-      </c>
-      <c r="H126" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
+      </c>
+      <c r="C127" t="s">
+        <v>94</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>107</v>
-      </c>
-      <c r="H127" t="s">
-        <v>25</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>108</v>
+        <v>260</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>273</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>109</v>
+        <v>261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>96</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F128">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>110</v>
-      </c>
-      <c r="H128" t="s">
-        <v>25</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>111</v>
+        <v>262</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E129">
         <v>-1</v>
@@ -5117,306 +4601,315 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>275</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>30</v>
+        <v>264</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>276</v>
-      </c>
-      <c r="C130" t="s">
-        <v>114</v>
+        <v>265</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>277</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" t="s">
-        <v>115</v>
+        <v>266</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>279</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="H131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>282</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>118</v>
+        <v>268</v>
+      </c>
+      <c r="C133" t="s">
+        <v>107</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>283</v>
-      </c>
-      <c r="H133" t="s">
-        <v>30</v>
+        <v>269</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>284</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>119</v>
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>285</v>
-      </c>
-      <c r="H134" t="s">
-        <v>30</v>
+        <v>271</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>287</v>
-      </c>
-      <c r="H135" t="s">
-        <v>25</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>121</v>
+        <v>273</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" t="s">
-        <v>122</v>
+        <v>274</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H136" t="s">
-        <v>25</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C137" t="s">
-        <v>123</v>
+        <v>276</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="E137">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H137" t="s">
-        <v>25</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>292</v>
-      </c>
-      <c r="C138" t="s">
-        <v>124</v>
+        <v>278</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="H138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="H139" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E140">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="H140" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="H141" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -5425,21 +4918,21 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E143">
         <v>10</v>
@@ -5448,88 +4941,180 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H144" t="s">
-        <v>25</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H145" t="s">
-        <v>25</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>130</v>
+      </c>
+      <c r="H146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>132</v>
+      </c>
+      <c r="H147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>135</v>
+      </c>
+      <c r="H148" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E146">
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150">
         <v>5</v>
       </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
-        <v>146</v>
-      </c>
-      <c r="H146" t="s">
-        <v>25</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>147</v>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AD0F9-F5B8-4D3E-A88E-E9F520F8E90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E88F2-3BBA-4FA5-AB91-7907F89A46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="405">
   <si>
     <t>##var</t>
   </si>
@@ -665,14 +652,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SpeedFinalPct;-25;0;-50</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedFinalPct;-75;0;-75</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>隐身</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1454,6 +1433,60 @@
   </si>
   <si>
     <t>MaxHpFinalPct;0;5;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;-25;0;-25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TowerBomb3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;-100;0;-100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TowerBomb3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;-40;0;-40</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1937,11 +1970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U150"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <pane ySplit="6" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2037,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2155,10 +2188,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2167,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -2175,10 +2208,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -2187,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -2195,10 +2228,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -2207,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -2215,10 +2248,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -2227,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -2235,10 +2268,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -2247,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -2255,10 +2288,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -2267,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -2275,10 +2308,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -2287,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -2295,10 +2328,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -2307,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -2315,10 +2348,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -2327,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -2335,10 +2368,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -2347,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -2355,10 +2388,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -2367,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -2375,10 +2408,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -2387,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -2395,10 +2428,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -2407,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -2415,10 +2448,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2427,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -2435,10 +2468,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2447,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -2455,10 +2488,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -2467,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -2475,11 +2508,11 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="E23">
         <v>-1</v>
       </c>
@@ -2487,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -2495,10 +2528,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2507,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -2515,10 +2548,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2527,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -2535,10 +2568,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -2547,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -2555,10 +2588,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -2567,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -2575,10 +2608,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -2587,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -2595,10 +2628,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -2607,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -2615,10 +2648,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -2627,21 +2660,21 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -2650,21 +2683,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2673,21 +2706,21 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2696,21 +2729,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -2719,21 +2752,21 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -2742,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -2756,18 +2789,18 @@
       <c r="D36" s="8"/>
       <c r="G36" s="12"/>
       <c r="H36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -2776,21 +2809,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -2799,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -2807,19 +2840,19 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="E40">
-        <v>-1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -2827,10 +2860,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -2839,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -2847,10 +2880,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -2859,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
@@ -2867,10 +2900,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -2879,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H43" t="s">
         <v>28</v>
@@ -2887,11 +2920,11 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="E44">
         <v>-1</v>
       </c>
@@ -2899,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
         <v>28</v>
@@ -2907,10 +2940,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -2919,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -2927,19 +2960,19 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="E46">
-        <v>-1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>326</v>
       </c>
       <c r="H46" t="s">
         <v>28</v>
@@ -2947,10 +2980,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -2959,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
@@ -2967,10 +3000,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -2979,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H48" t="s">
         <v>28</v>
@@ -2987,10 +3020,10 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -2999,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
@@ -3007,10 +3040,10 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E50">
         <v>-1</v>
@@ -3019,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H50" t="s">
         <v>28</v>
@@ -3027,10 +3060,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E51">
         <v>-1</v>
@@ -3039,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H51" t="s">
         <v>28</v>
@@ -3047,10 +3080,10 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E52">
         <v>-1</v>
@@ -3059,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H52" t="s">
         <v>28</v>
@@ -3067,10 +3100,10 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E53">
         <v>-1</v>
@@ -3079,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H53" t="s">
         <v>28</v>
@@ -3087,10 +3120,10 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -3099,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H54" t="s">
         <v>28</v>
@@ -3107,10 +3140,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -3119,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H55" t="s">
         <v>28</v>
@@ -3127,10 +3160,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E56">
         <v>-1</v>
@@ -3139,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H56" t="s">
         <v>28</v>
@@ -3147,10 +3180,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -3159,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
         <v>28</v>
@@ -3167,10 +3200,10 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -3179,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
@@ -3187,11 +3220,11 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="E59">
         <v>-1</v>
       </c>
@@ -3199,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H59" t="s">
         <v>28</v>
@@ -3207,10 +3240,10 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -3219,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
         <v>28</v>
@@ -3227,19 +3260,19 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="H61" t="s">
         <v>28</v>
@@ -3247,10 +3280,10 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E62">
         <v>-1</v>
@@ -3259,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -3267,10 +3300,10 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -3279,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H63" t="s">
         <v>28</v>
@@ -3287,10 +3320,10 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -3299,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H64" t="s">
         <v>28</v>
@@ -3307,10 +3340,10 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3319,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
         <v>28</v>
@@ -3327,10 +3360,10 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -3339,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H66" t="s">
         <v>28</v>
@@ -3347,10 +3380,10 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -3359,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H67" t="s">
         <v>28</v>
@@ -3367,10 +3400,10 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -3379,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
@@ -3387,10 +3420,10 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -3399,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H69" t="s">
         <v>28</v>
@@ -3407,10 +3440,10 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -3419,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -3427,10 +3460,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E71">
         <v>8</v>
@@ -3439,21 +3472,21 @@
         <v>1</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H71" t="s">
         <v>24</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3462,21 +3495,21 @@
         <v>1</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H72" t="s">
         <v>24</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E73">
         <v>8</v>
@@ -3485,21 +3518,21 @@
         <v>1</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H73" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E74">
         <v>8</v>
@@ -3508,21 +3541,21 @@
         <v>1</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H74" t="s">
         <v>24</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -3531,21 +3564,21 @@
         <v>1</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H75" t="s">
         <v>24</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E76">
         <v>8</v>
@@ -3554,21 +3587,21 @@
         <v>1</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H76" t="s">
         <v>24</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -3577,21 +3610,21 @@
         <v>1</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H77" t="s">
         <v>24</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -3600,21 +3633,21 @@
         <v>1</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H78" t="s">
         <v>24</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -3623,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H79" t="s">
         <v>24</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
@@ -3644,7 +3677,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>22</v>
@@ -3679,7 +3712,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>26</v>
@@ -3700,7 +3733,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>26</v>
@@ -3721,7 +3754,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>26</v>
@@ -3742,7 +3775,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>31</v>
@@ -3763,7 +3796,7 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>33</v>
@@ -3784,7 +3817,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>35</v>
@@ -3805,10 +3838,10 @@
     </row>
     <row r="91" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E91" s="3">
         <v>10</v>
@@ -3817,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H91" t="s">
         <v>28</v>
@@ -3825,7 +3858,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>37</v>
@@ -3846,7 +3879,7 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>39</v>
@@ -3867,7 +3900,7 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>41</v>
@@ -3885,7 +3918,7 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>43</v>
@@ -3908,7 +3941,7 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8" t="s">
@@ -3927,12 +3960,12 @@
         <v>24</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>146</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8" t="s">
@@ -3951,12 +3984,12 @@
         <v>24</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>145</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8" t="s">
@@ -3975,12 +4008,12 @@
         <v>24</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>49</v>
@@ -4003,7 +4036,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>52</v>
@@ -4026,7 +4059,7 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>54</v>
@@ -4044,12 +4077,12 @@
         <v>51</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>56</v>
@@ -4072,7 +4105,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>59</v>
@@ -4092,7 +4125,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>61</v>
@@ -4112,7 +4145,7 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>63</v>
@@ -4132,7 +4165,7 @@
     </row>
     <row r="108" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>65</v>
@@ -4153,7 +4186,7 @@
     </row>
     <row r="109" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>65</v>
@@ -4174,7 +4207,7 @@
     </row>
     <row r="110" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>65</v>
@@ -4200,19 +4233,19 @@
     </row>
     <row r="112" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E112" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H112" t="s">
         <v>28</v>
@@ -4221,10 +4254,10 @@
     </row>
     <row r="113" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E113" s="4">
         <v>2</v>
@@ -4233,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H113" t="s">
         <v>28</v>
@@ -4246,7 +4279,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s">
         <v>69</v>
@@ -4261,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>28</v>
@@ -4269,7 +4302,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s">
         <v>71</v>
@@ -4284,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>28</v>
@@ -4292,7 +4325,7 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
         <v>72</v>
@@ -4307,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>28</v>
@@ -4315,7 +4348,7 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>73</v>
@@ -4341,7 +4374,7 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>76</v>
@@ -4367,7 +4400,7 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>79</v>
@@ -4393,7 +4426,7 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C121" t="s">
         <v>82</v>
@@ -4408,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>28</v>
@@ -4416,7 +4449,7 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
         <v>84</v>
@@ -4431,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>28</v>
@@ -4439,7 +4472,7 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
         <v>85</v>
@@ -4454,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>28</v>
@@ -4462,7 +4495,7 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>86</v>
@@ -4488,7 +4521,7 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>90</v>
@@ -4514,7 +4547,7 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>92</v>
@@ -4540,7 +4573,7 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C127" t="s">
         <v>94</v>
@@ -4555,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>28</v>
@@ -4563,7 +4596,7 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C128" t="s">
         <v>96</v>
@@ -4578,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>28</v>
@@ -4586,7 +4619,7 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
         <v>97</v>
@@ -4601,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>28</v>
@@ -4609,7 +4642,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>98</v>
@@ -4635,7 +4668,7 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>101</v>
@@ -4661,7 +4694,7 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>104</v>
@@ -4687,7 +4720,7 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
         <v>107</v>
@@ -4702,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>28</v>
@@ -4710,7 +4743,7 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
         <v>109</v>
@@ -4725,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>28</v>
@@ -4733,7 +4766,7 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
         <v>110</v>
@@ -4748,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>28</v>
@@ -4756,7 +4789,7 @@
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>111</v>
@@ -4771,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H136" t="s">
         <v>28</v>
@@ -4779,7 +4812,7 @@
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>113</v>
@@ -4794,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H137" t="s">
         <v>28</v>
@@ -4802,7 +4835,7 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>114</v>
@@ -4817,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H138" t="s">
         <v>28</v>
@@ -4825,13 +4858,13 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
         <v>115</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E139">
         <v>0.5</v>
@@ -4840,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H139" t="s">
         <v>24</v>
@@ -4851,13 +4884,13 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
         <v>117</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -4866,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H140" t="s">
         <v>24</v>
@@ -4877,13 +4910,13 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
         <v>118</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E141">
         <v>1.5</v>
@@ -4892,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H141" t="s">
         <v>24</v>
@@ -4903,7 +4936,7 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
         <v>119</v>
@@ -4912,7 +4945,7 @@
         <v>120</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -4926,7 +4959,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
         <v>122</v>
@@ -4935,7 +4968,7 @@
         <v>120</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -4949,7 +4982,7 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
         <v>124</v>
@@ -4958,7 +4991,7 @@
         <v>120</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4969,10 +5002,11 @@
       <c r="H144" t="s">
         <v>28</v>
       </c>
+      <c r="I144" s="7"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
         <v>126</v>
@@ -4995,7 +5029,7 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
         <v>129</v>
@@ -5018,7 +5052,7 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
         <v>131</v>
@@ -5041,7 +5075,7 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C148" t="s">
         <v>133</v>
@@ -5067,7 +5101,7 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C149" t="s">
         <v>137</v>
@@ -5093,7 +5127,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
         <v>140</v>
@@ -5115,6 +5149,32 @@
       </c>
       <c r="I150" s="8" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E88F2-3BBA-4FA5-AB91-7907F89A46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FA5E11-E3AF-4479-A3B6-D7809352D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1428,14 +1428,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>HpFinalPct;0;5;-1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHpFinalPct;0;5;-1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SpeedFinalPct;-25;0;-25</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1487,6 +1479,14 @@
   </si>
   <si>
     <t>SpeedFinalPct;-40;0;-40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct;0;30;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct;0;30;-1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1970,11 +1970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U151"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2777,11 +2777,11 @@
       <c r="G35" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="7" t="s">
         <v>383</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>383</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -3664,10 +3664,6 @@
       <c r="I79" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="12"/>
-      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D81" s="8"/>
@@ -3960,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
@@ -3984,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
@@ -5004,7 +5000,7 @@
       </c>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>287</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>288</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>289</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>290</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>291</v>
       </c>
@@ -5125,7 +5121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>292</v>
       </c>
@@ -5151,15 +5147,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -5168,14 +5164,18 @@
         <v>1</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H151" t="s">
         <v>24</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>402</v>
-      </c>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J152"/>
+      <c r="K152"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FED43-1CC7-4220-A458-A8E48494BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84193E-A2F8-457F-8BE1-FADE2B675025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="608">
   <si>
     <t>##var</t>
   </si>
@@ -1821,9 +1821,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SpeedBase;3;0;3</t>
-  </si>
-  <si>
     <t>BuffAdd_Default_Monster_ZhongZi1</t>
   </si>
   <si>
@@ -1960,10 +1957,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHpFinalPct;0;-10;-50</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageReliefBase;50;0;50</t>
   </si>
   <si>
@@ -1990,12 +1983,6 @@
     <t>BuffAdd_Line3_Fire</t>
   </si>
   <si>
-    <t>HpFinalPct;0;100;-1</t>
-  </si>
-  <si>
-    <t>MaxHpFinalPct;0;100;-1</t>
-  </si>
-  <si>
     <t>BuffAdd_Default_Monster_Long1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2039,6 +2026,192 @@
   </si>
   <si>
     <t>PhysicalAttackFinalAdd;5;0;6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Default_Monster_MiFeng3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蜜蜂3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Default_Monster_MiFeng3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Actor_HpMax</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_Actor_HpFix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤怪物通用技能-生命调节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤怪物被动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_Default_Monster_Dan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡弱化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff_Default_Monster_Dan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Stun_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化-眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_Stun_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct;-95;0;-95</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct;-95;0;-95</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalPct;100;0;-100</t>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Long2</t>
+  </si>
+  <si>
+    <t>Buff_Monster_Long2</t>
+  </si>
+  <si>
+    <t>友军加攻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttackBase;1;0;1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Default_Monster_XueRen2_Shield</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时护盾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Default_Monster_XueRen2_Shield</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速降低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果-雪人3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCDFinalPct;100;0;"";NormalAttack;-1;None;100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少受伤率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少受伤率+加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身停止并减少受伤率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体减少受伤率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct;0;-5;-50</t>
+  </si>
+  <si>
+    <t>BuffAdd_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpFinalPct;0;650;-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct;0;650;-1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2605,26 +2778,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E511139-D182-4EE4-AD7D-CAA031C5E5D8}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2830,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2863,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2896,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2925,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2952,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2993,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>209</v>
       </c>
@@ -2841,7 +3014,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>210</v>
       </c>
@@ -2862,7 +3035,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>211</v>
       </c>
@@ -2883,7 +3056,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>212</v>
       </c>
@@ -2904,7 +3077,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>213</v>
       </c>
@@ -2925,7 +3098,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>214</v>
       </c>
@@ -2946,12 +3119,12 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2966,12 +3139,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -2986,12 +3159,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -3006,7 +3179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>215</v>
       </c>
@@ -3027,7 +3200,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>217</v>
       </c>
@@ -3045,7 +3218,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>218</v>
       </c>
@@ -3068,7 +3241,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>219</v>
       </c>
@@ -3092,7 +3265,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>220</v>
       </c>
@@ -3116,7 +3289,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>221</v>
       </c>
@@ -3140,7 +3313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>222</v>
       </c>
@@ -3163,7 +3336,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>223</v>
       </c>
@@ -3186,7 +3359,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>224</v>
       </c>
@@ -3209,7 +3382,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>226</v>
       </c>
@@ -3229,7 +3402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>227</v>
       </c>
@@ -3249,7 +3422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>228</v>
       </c>
@@ -3269,7 +3442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>279</v>
       </c>
@@ -3292,7 +3465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>280</v>
       </c>
@@ -3315,7 +3488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>281</v>
       </c>
@@ -3339,7 +3512,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>389</v>
       </c>
@@ -3363,7 +3536,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>423</v>
       </c>
@@ -3389,7 +3562,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>424</v>
       </c>
@@ -3415,7 +3588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>425</v>
       </c>
@@ -3441,7 +3614,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>430</v>
       </c>
@@ -3465,12 +3638,12 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>394</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3488,12 +3661,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>395</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3511,12 +3684,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>396</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -3534,12 +3707,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>397</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -3557,12 +3730,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>398</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -3580,12 +3753,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>399</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -3603,12 +3776,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>400</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -3626,12 +3799,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>401</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E44">
         <v>-1</v>
@@ -3649,12 +3822,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -3672,12 +3845,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>403</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -3695,12 +3868,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>404</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -3718,12 +3891,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>405</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -3740,6 +3913,27 @@
       <c r="I48" s="8" t="s">
         <v>503</v>
       </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3754,29 +3948,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A109684-ACDF-461B-AA20-3C369EADC315}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3809,7 +4003,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +4036,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3875,7 +4069,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +4098,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3931,7 +4125,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3972,104 +4166,104 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="D7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="D9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D8" t="s">
-        <v>521</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="D10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="D9" t="s">
-        <v>521</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="D11" t="s">
         <v>141</v>
@@ -4081,18 +4275,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D12" t="s">
         <v>141</v>
@@ -4104,110 +4298,110 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="D13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" t="s">
-        <v>522</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="D15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" t="s">
-        <v>449</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="D17" t="s">
         <v>449</v>
@@ -4219,220 +4413,217 @@
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>567</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>453</v>
       </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E24">
-        <v>-1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>485</v>
-      </c>
       <c r="H24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>458</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>590</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>457</v>
+        <v>591</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>486</v>
+      <c r="G25" s="17" t="s">
+        <v>592</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -4441,30 +4632,51 @@
         <v>1</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>421</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>599</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>422</v>
+      <c r="G28" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -4472,347 +4684,512 @@
       <c r="I28" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>419</v>
-      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="8"/>
+      <c r="G29" s="12"/>
       <c r="H29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
+        <v>24</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>598</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>419</v>
+      <c r="G30" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="H30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="D31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="8" t="s">
-        <v>449</v>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="8"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>460</v>
+      <c r="G32" s="14" t="s">
+        <v>422</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="8" t="s">
-        <v>449</v>
+        <v>545</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>580</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>461</v>
+      <c r="G33" s="14" t="s">
+        <v>581</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="8" t="s">
-        <v>449</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>462</v>
+      <c r="G34" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="8" t="s">
-        <v>453</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>463</v>
+      <c r="G35" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="8" t="s">
-        <v>453</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>464</v>
+      <c r="G36" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="12" t="s">
-        <v>445</v>
+      <c r="I37" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>440</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="8" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>466</v>
+      <c r="G38" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="H38" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
-        <v>446</v>
+      <c r="I38" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>441</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="8" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>467</v>
+      <c r="G39" s="17" t="s">
+        <v>462</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
-        <v>447</v>
+      <c r="I39" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>585</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="8" t="s">
-        <v>457</v>
+        <v>587</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>468</v>
+      <c r="G40" s="17" t="s">
+        <v>586</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="8"/>
-      <c r="G41" s="12"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="12" t="s">
+      <c r="I40" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="17" t="s">
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="D43" s="8"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="7" t="s">
+      <c r="I48" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="D49" s="8"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
+      <c r="I49" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E44">
-        <v>-1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="12" t="s">
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4822,20 +5199,20 @@
     <mergeCell ref="E3:I3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B15:B17 B21:B26">
+  <conditionalFormatting sqref="B17:B19 B23:B31">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B20">
+  <conditionalFormatting sqref="B20:B22">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B41">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B37:B40 B42:B47">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G26">
+  <conditionalFormatting sqref="G17:G31">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G41">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="G37:G47">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4851,20 +5228,20 @@
       <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="31.75" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4897,7 +5274,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4930,7 +5307,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -4963,7 +5340,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +5369,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5396,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -5060,7 +5437,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>145</v>
       </c>
@@ -5080,7 +5457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>146</v>
       </c>
@@ -5100,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>147</v>
       </c>
@@ -5120,7 +5497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -5140,7 +5517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>149</v>
       </c>
@@ -5160,7 +5537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>150</v>
       </c>
@@ -5180,7 +5557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>151</v>
       </c>
@@ -5200,7 +5577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>152</v>
       </c>
@@ -5220,7 +5597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -5240,7 +5617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>154</v>
       </c>
@@ -5260,7 +5637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>155</v>
       </c>
@@ -5280,7 +5657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>156</v>
       </c>
@@ -5300,7 +5677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>185</v>
       </c>
@@ -5320,7 +5697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>157</v>
       </c>
@@ -5340,7 +5717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -5360,7 +5737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>159</v>
       </c>
@@ -5380,7 +5757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>160</v>
       </c>
@@ -5400,7 +5777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -5420,7 +5797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>164</v>
       </c>
@@ -5440,7 +5817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>165</v>
       </c>
@@ -5460,7 +5837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>166</v>
       </c>
@@ -5480,7 +5857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>167</v>
       </c>
@@ -5500,7 +5877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>168</v>
       </c>
@@ -5520,7 +5897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>174</v>
       </c>
@@ -5543,7 +5920,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>175</v>
       </c>
@@ -5566,7 +5943,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>186</v>
       </c>
@@ -5589,7 +5966,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>176</v>
       </c>
@@ -5612,7 +5989,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>177</v>
       </c>
@@ -5635,11 +6012,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>288</v>
       </c>
@@ -5659,7 +6036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>289</v>
       </c>
@@ -5679,7 +6056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>290</v>
       </c>
@@ -5699,7 +6076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>291</v>
       </c>
@@ -5719,7 +6096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>292</v>
       </c>
@@ -5739,7 +6116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>293</v>
       </c>
@@ -5759,7 +6136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>294</v>
       </c>
@@ -5779,7 +6156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>303</v>
       </c>
@@ -5799,7 +6176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>304</v>
       </c>
@@ -5819,7 +6196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>305</v>
       </c>
@@ -5839,7 +6216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>306</v>
       </c>
@@ -5859,7 +6236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>307</v>
       </c>
@@ -5879,7 +6256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>308</v>
       </c>
@@ -5899,7 +6276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>309</v>
       </c>
@@ -5919,7 +6296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>310</v>
       </c>
@@ -5939,7 +6316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>311</v>
       </c>
@@ -5959,7 +6336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>312</v>
       </c>
@@ -5979,7 +6356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>313</v>
       </c>
@@ -5999,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>314</v>
       </c>
@@ -6019,7 +6396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>315</v>
       </c>
@@ -6039,7 +6416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>316</v>
       </c>
@@ -6059,7 +6436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>364</v>
       </c>
@@ -6079,7 +6456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>365</v>
       </c>
@@ -6099,7 +6476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>366</v>
       </c>
@@ -6119,7 +6496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>333</v>
       </c>
@@ -6139,7 +6516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>334</v>
       </c>
@@ -6159,7 +6536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>335</v>
       </c>
@@ -6179,7 +6556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>336</v>
       </c>
@@ -6199,7 +6576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>337</v>
       </c>
@@ -6219,7 +6596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>338</v>
       </c>
@@ -6239,7 +6616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>339</v>
       </c>
@@ -6259,7 +6636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>340</v>
       </c>
@@ -6279,7 +6656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>350</v>
       </c>
@@ -6302,7 +6679,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>351</v>
       </c>
@@ -6325,7 +6702,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>352</v>
       </c>
@@ -6348,7 +6725,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>353</v>
       </c>
@@ -6371,7 +6748,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>354</v>
       </c>
@@ -6394,7 +6771,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>355</v>
       </c>
@@ -6417,7 +6794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>371</v>
       </c>
@@ -6440,7 +6817,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>372</v>
       </c>
@@ -6463,7 +6840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>373</v>
       </c>
@@ -6486,7 +6863,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>208</v>
       </c>
@@ -6509,13 +6886,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>216</v>
       </c>
@@ -6536,7 +6913,7 @@
       </c>
       <c r="I80" s="7"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>225</v>
       </c>
@@ -6559,7 +6936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>229</v>
       </c>
@@ -6580,7 +6957,7 @@
       </c>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>230</v>
       </c>
@@ -6601,7 +6978,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>231</v>
       </c>
@@ -6622,12 +6999,12 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="9"/>
       <c r="G86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>232</v>
       </c>
@@ -6648,7 +7025,7 @@
       </c>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>233</v>
       </c>
@@ -6669,11 +7046,11 @@
       </c>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D89" s="8"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>234</v>
       </c>
@@ -6696,7 +7073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>236</v>
       </c>
@@ -6719,7 +7096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>238</v>
       </c>
@@ -6742,7 +7119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>240</v>
       </c>
@@ -6768,7 +7145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>241</v>
       </c>
@@ -6794,7 +7171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>242</v>
       </c>
@@ -6820,7 +7197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>243</v>
       </c>
@@ -6843,7 +7220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>245</v>
       </c>
@@ -6866,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>247</v>
       </c>
@@ -6889,7 +7266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>249</v>
       </c>
@@ -6915,7 +7292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>250</v>
       </c>
@@ -6941,7 +7318,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>251</v>
       </c>
@@ -6967,7 +7344,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>252</v>
       </c>
@@ -6990,7 +7367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>254</v>
       </c>
@@ -7013,7 +7390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>256</v>
       </c>
@@ -7036,7 +7413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>258</v>
       </c>
@@ -7062,7 +7439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>259</v>
       </c>
@@ -7088,7 +7465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>260</v>
       </c>
@@ -7114,7 +7491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>261</v>
       </c>
@@ -7137,7 +7514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>263</v>
       </c>
@@ -7160,7 +7537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>265</v>
       </c>
@@ -7183,7 +7560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>267</v>
       </c>
@@ -7206,7 +7583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>269</v>
       </c>
@@ -7229,7 +7606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>271</v>
       </c>
@@ -7252,7 +7629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>273</v>
       </c>
@@ -7278,7 +7655,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>275</v>
       </c>
@@ -7304,7 +7681,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>277</v>
       </c>
@@ -7330,7 +7707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>282</v>
       </c>
@@ -7353,7 +7730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>283</v>
       </c>
@@ -7376,7 +7753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>284</v>
       </c>
@@ -7399,7 +7776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>285</v>
       </c>
@@ -7425,7 +7802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>286</v>
       </c>
@@ -7451,7 +7828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>287</v>
       </c>
@@ -7477,7 +7854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I124" s="8"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84193E-A2F8-457F-8BE1-FADE2B675025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D473EE-C3EA-4EB9-AD2F-8A434B824956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="627">
   <si>
     <t>##var</t>
   </si>
@@ -2213,6 +2213,80 @@
   <si>
     <t>MaxHpFinalPct;0;650;-1</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹命中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReliefBase;-100;0;-100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_BreakArmor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡命中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_IceBind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier_SpeedUp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier_SlowDown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加结界增益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加结界减益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier_SpeedUp</t>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier_SlowDown</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2431,6 +2505,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2778,26 +2858,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E511139-D182-4EE4-AD7D-CAA031C5E5D8}">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2810,13 +2890,13 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -2830,7 +2910,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2846,10 +2926,10 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -2863,7 +2943,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2876,13 +2956,13 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -2896,7 +2976,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +3005,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2952,7 +3032,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2993,7 +3073,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>209</v>
       </c>
@@ -3014,7 +3094,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>210</v>
       </c>
@@ -3035,7 +3115,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>211</v>
       </c>
@@ -3056,7 +3136,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>212</v>
       </c>
@@ -3077,7 +3157,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>213</v>
       </c>
@@ -3098,7 +3178,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>214</v>
       </c>
@@ -3119,7 +3199,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>551</v>
       </c>
@@ -3139,7 +3219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>552</v>
       </c>
@@ -3159,7 +3239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>553</v>
       </c>
@@ -3179,7 +3259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>215</v>
       </c>
@@ -3200,7 +3280,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>217</v>
       </c>
@@ -3218,7 +3298,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>218</v>
       </c>
@@ -3241,7 +3321,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>219</v>
       </c>
@@ -3265,7 +3345,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>220</v>
       </c>
@@ -3289,7 +3369,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>221</v>
       </c>
@@ -3313,7 +3393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>222</v>
       </c>
@@ -3336,7 +3416,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>223</v>
       </c>
@@ -3359,7 +3439,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>224</v>
       </c>
@@ -3382,7 +3462,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>226</v>
       </c>
@@ -3402,7 +3482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>227</v>
       </c>
@@ -3422,7 +3502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>228</v>
       </c>
@@ -3442,7 +3522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>279</v>
       </c>
@@ -3465,7 +3545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>280</v>
       </c>
@@ -3488,7 +3568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>281</v>
       </c>
@@ -3512,7 +3592,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>389</v>
       </c>
@@ -3536,7 +3616,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>423</v>
       </c>
@@ -3562,7 +3642,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>424</v>
       </c>
@@ -3588,7 +3668,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>425</v>
       </c>
@@ -3614,7 +3694,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>430</v>
       </c>
@@ -3638,7 +3718,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>394</v>
       </c>
@@ -3661,7 +3741,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>395</v>
       </c>
@@ -3684,7 +3764,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>396</v>
       </c>
@@ -3707,7 +3787,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>397</v>
       </c>
@@ -3730,7 +3810,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>398</v>
       </c>
@@ -3753,7 +3833,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>399</v>
       </c>
@@ -3776,7 +3856,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>400</v>
       </c>
@@ -3799,7 +3879,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>401</v>
       </c>
@@ -3822,7 +3902,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>402</v>
       </c>
@@ -3845,7 +3925,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>403</v>
       </c>
@@ -3868,7 +3948,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>404</v>
       </c>
@@ -3891,7 +3971,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>405</v>
       </c>
@@ -3914,7 +3994,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>603</v>
       </c>
@@ -3934,6 +4014,130 @@
         <v>27</v>
       </c>
       <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="E54">
+        <v>0.4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3950,27 +4154,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A109684-ACDF-461B-AA20-3C369EADC315}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3983,13 +4187,13 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -4003,7 +4207,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4019,10 +4223,10 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -4036,7 +4240,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -4049,13 +4253,13 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -4069,7 +4273,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4302,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -4125,7 +4329,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -4166,7 +4370,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>567</v>
       </c>
@@ -4189,7 +4393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>504</v>
       </c>
@@ -4212,7 +4416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>505</v>
       </c>
@@ -4235,7 +4439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>506</v>
       </c>
@@ -4258,7 +4462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>507</v>
       </c>
@@ -4281,7 +4485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>508</v>
       </c>
@@ -4304,7 +4508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>509</v>
       </c>
@@ -4327,7 +4531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>575</v>
       </c>
@@ -4350,7 +4554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>510</v>
       </c>
@@ -4373,7 +4577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>511</v>
       </c>
@@ -4396,7 +4600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>470</v>
       </c>
@@ -4419,7 +4623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>471</v>
       </c>
@@ -4442,7 +4646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>472</v>
       </c>
@@ -4465,7 +4669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>554</v>
       </c>
@@ -4491,7 +4695,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
         <v>555</v>
       </c>
@@ -4517,7 +4721,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
         <v>556</v>
       </c>
@@ -4543,7 +4747,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>473</v>
       </c>
@@ -4566,7 +4770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>474</v>
       </c>
@@ -4589,7 +4793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>589</v>
       </c>
@@ -4615,7 +4819,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>475</v>
       </c>
@@ -4638,7 +4842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>476</v>
       </c>
@@ -4659,7 +4863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>477</v>
       </c>
@@ -4685,7 +4889,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8"/>
@@ -4697,7 +4901,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>478</v>
       </c>
@@ -4721,14 +4925,14 @@
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="8"/>
       <c r="G31" s="12"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>420</v>
       </c>
@@ -4753,7 +4957,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>579</v>
       </c>
@@ -4773,7 +4977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>542</v>
       </c>
@@ -4793,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>543</v>
       </c>
@@ -4813,7 +5017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>544</v>
       </c>
@@ -4833,7 +5037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
         <v>439</v>
       </c>
@@ -4857,7 +5061,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>440</v>
       </c>
@@ -4881,7 +5085,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
         <v>441</v>
       </c>
@@ -4905,7 +5109,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
         <v>585</v>
       </c>
@@ -4929,7 +5133,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>593</v>
       </c>
@@ -4955,7 +5159,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
         <v>442</v>
       </c>
@@ -4979,7 +5183,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
         <v>443</v>
       </c>
@@ -5003,7 +5207,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
         <v>444</v>
       </c>
@@ -5027,7 +5231,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>445</v>
       </c>
@@ -5051,7 +5255,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>446</v>
       </c>
@@ -5075,7 +5279,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>447</v>
       </c>
@@ -5099,7 +5303,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>383</v>
       </c>
@@ -5122,7 +5326,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="D49" s="8"/>
       <c r="G49" s="17"/>
@@ -5133,7 +5337,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>381</v>
       </c>
@@ -5156,7 +5360,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>571</v>
       </c>
@@ -5182,7 +5386,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="D52" s="8"/>
       <c r="H52" t="s">
@@ -5223,25 +5427,25 @@
   <dimension ref="A1:U124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23:I25"/>
       <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" customWidth="1"/>
-    <col min="9" max="9" width="37.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="9" max="9" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5254,13 +5458,13 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -5274,7 +5478,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5290,10 +5494,10 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -5307,7 +5511,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -5320,13 +5524,13 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5340,7 +5544,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5573,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -5396,7 +5600,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -5437,7 +5641,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>145</v>
       </c>
@@ -5457,7 +5661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>146</v>
       </c>
@@ -5477,7 +5681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>147</v>
       </c>
@@ -5497,7 +5701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -5517,7 +5721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>149</v>
       </c>
@@ -5537,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>150</v>
       </c>
@@ -5557,7 +5761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>151</v>
       </c>
@@ -5577,7 +5781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>152</v>
       </c>
@@ -5597,7 +5801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -5617,7 +5821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>154</v>
       </c>
@@ -5637,7 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>155</v>
       </c>
@@ -5657,7 +5861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>156</v>
       </c>
@@ -5677,7 +5881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>185</v>
       </c>
@@ -5697,7 +5901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>157</v>
       </c>
@@ -5717,7 +5921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -5737,7 +5941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>159</v>
       </c>
@@ -5757,7 +5961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>160</v>
       </c>
@@ -5777,7 +5981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -5797,7 +6001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>164</v>
       </c>
@@ -5817,7 +6021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>165</v>
       </c>
@@ -5837,7 +6041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>166</v>
       </c>
@@ -5857,7 +6061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>167</v>
       </c>
@@ -5877,7 +6081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>168</v>
       </c>
@@ -5897,7 +6101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>174</v>
       </c>
@@ -5920,7 +6124,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>175</v>
       </c>
@@ -5943,7 +6147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>186</v>
       </c>
@@ -5966,7 +6170,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>176</v>
       </c>
@@ -5989,7 +6193,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>177</v>
       </c>
@@ -6012,11 +6216,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>288</v>
       </c>
@@ -6036,7 +6240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>289</v>
       </c>
@@ -6056,7 +6260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>290</v>
       </c>
@@ -6076,7 +6280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>291</v>
       </c>
@@ -6096,7 +6300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>292</v>
       </c>
@@ -6116,7 +6320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
         <v>293</v>
       </c>
@@ -6136,7 +6340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>294</v>
       </c>
@@ -6156,7 +6360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
         <v>303</v>
       </c>
@@ -6176,7 +6380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
         <v>304</v>
       </c>
@@ -6196,7 +6400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>305</v>
       </c>
@@ -6216,7 +6420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>306</v>
       </c>
@@ -6236,7 +6440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>307</v>
       </c>
@@ -6256,7 +6460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>308</v>
       </c>
@@ -6276,7 +6480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
         <v>309</v>
       </c>
@@ -6296,7 +6500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>310</v>
       </c>
@@ -6316,7 +6520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
         <v>311</v>
       </c>
@@ -6336,7 +6540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
         <v>312</v>
       </c>
@@ -6356,7 +6560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
         <v>313</v>
       </c>
@@ -6376,7 +6580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>314</v>
       </c>
@@ -6396,7 +6600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
         <v>315</v>
       </c>
@@ -6416,7 +6620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
         <v>316</v>
       </c>
@@ -6436,7 +6640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>364</v>
       </c>
@@ -6456,7 +6660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
         <v>365</v>
       </c>
@@ -6476,7 +6680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
         <v>366</v>
       </c>
@@ -6496,7 +6700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
         <v>333</v>
       </c>
@@ -6516,7 +6720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="12" t="s">
         <v>334</v>
       </c>
@@ -6536,7 +6740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="12" t="s">
         <v>335</v>
       </c>
@@ -6556,7 +6760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
         <v>336</v>
       </c>
@@ -6576,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
         <v>337</v>
       </c>
@@ -6596,7 +6800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="12" t="s">
         <v>338</v>
       </c>
@@ -6616,7 +6820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
         <v>339</v>
       </c>
@@ -6636,7 +6840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>340</v>
       </c>
@@ -6656,7 +6860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>350</v>
       </c>
@@ -6679,7 +6883,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
         <v>351</v>
       </c>
@@ -6702,7 +6906,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>352</v>
       </c>
@@ -6725,7 +6929,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
         <v>353</v>
       </c>
@@ -6748,7 +6952,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="12" t="s">
         <v>354</v>
       </c>
@@ -6771,7 +6975,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
         <v>355</v>
       </c>
@@ -6794,7 +6998,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
         <v>371</v>
       </c>
@@ -6817,7 +7021,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
         <v>372</v>
       </c>
@@ -6840,7 +7044,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
         <v>373</v>
       </c>
@@ -6863,7 +7067,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>208</v>
       </c>
@@ -6886,13 +7090,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D79" s="8"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>216</v>
       </c>
@@ -6913,7 +7117,7 @@
       </c>
       <c r="I80" s="7"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>225</v>
       </c>
@@ -6936,7 +7140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>229</v>
       </c>
@@ -6957,7 +7161,7 @@
       </c>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>230</v>
       </c>
@@ -6978,7 +7182,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>231</v>
       </c>
@@ -6999,12 +7203,12 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D86" s="9"/>
       <c r="G86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>232</v>
       </c>
@@ -7025,7 +7229,7 @@
       </c>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>233</v>
       </c>
@@ -7046,11 +7250,11 @@
       </c>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D89" s="8"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>234</v>
       </c>
@@ -7073,7 +7277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>236</v>
       </c>
@@ -7096,7 +7300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>238</v>
       </c>
@@ -7119,7 +7323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>240</v>
       </c>
@@ -7145,7 +7349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>241</v>
       </c>
@@ -7171,7 +7375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>242</v>
       </c>
@@ -7197,7 +7401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>243</v>
       </c>
@@ -7220,7 +7424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>245</v>
       </c>
@@ -7243,7 +7447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>247</v>
       </c>
@@ -7266,7 +7470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>249</v>
       </c>
@@ -7292,7 +7496,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>250</v>
       </c>
@@ -7318,7 +7522,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>251</v>
       </c>
@@ -7344,7 +7548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>252</v>
       </c>
@@ -7367,7 +7571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>254</v>
       </c>
@@ -7390,7 +7594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>256</v>
       </c>
@@ -7413,7 +7617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>258</v>
       </c>
@@ -7439,7 +7643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>259</v>
       </c>
@@ -7465,7 +7669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>260</v>
       </c>
@@ -7491,7 +7695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>261</v>
       </c>
@@ -7514,7 +7718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>263</v>
       </c>
@@ -7537,7 +7741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>265</v>
       </c>
@@ -7560,7 +7764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>267</v>
       </c>
@@ -7583,7 +7787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>269</v>
       </c>
@@ -7606,7 +7810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>271</v>
       </c>
@@ -7629,7 +7833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>273</v>
       </c>
@@ -7655,7 +7859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>275</v>
       </c>
@@ -7681,7 +7885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>277</v>
       </c>
@@ -7707,7 +7911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>282</v>
       </c>
@@ -7730,7 +7934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>283</v>
       </c>
@@ -7753,7 +7957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>284</v>
       </c>
@@ -7776,7 +7980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>285</v>
       </c>
@@ -7802,7 +8006,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>286</v>
       </c>
@@ -7828,7 +8032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>287</v>
       </c>
@@ -7854,7 +8058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I124" s="8"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffAdd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F8721-ABCE-43CB-9023-85A40F29B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86169A8E-CE7D-4B69-BDDC-196ACBFDFB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="754">
   <si>
     <t>##var</t>
   </si>
@@ -2345,12 +2345,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>HpFinalPct;-75;0;-75</t>
-  </si>
-  <si>
-    <t>MaxHpFinalPct;-75;0;-75</t>
-  </si>
-  <si>
     <t>骷髅复生</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2622,9 +2616,6 @@
   <si>
     <t>Buff_Monster_Imp1_Blink</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedFinalAdd;20;0;20</t>
   </si>
   <si>
     <r>
@@ -2748,9 +2739,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Buff_Circle2_Slow</t>
-  </si>
-  <si>
     <t>Buff_Circle3_Break</t>
   </si>
   <si>
@@ -2792,6 +2780,37 @@
   </si>
   <si>
     <t>20;0;MotionUnitId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedFinalAdd;15;0;15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_CallActor_Skull1</t>
+  </si>
+  <si>
+    <t>召唤小骷髅1，减血</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像2冻结</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_StoneGolem2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_InvulnerableToDeath</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免死</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_InvulnerableToDeath</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3508,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E511139-D182-4EE4-AD7D-CAA031C5E5D8}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3571,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -3705,7 +3724,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
@@ -3947,13 +3966,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E16" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3961,22 +3980,22 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>737</v>
+      <c r="H16" t="s">
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E17" s="3">
         <v>0.2</v>
@@ -3988,13 +4007,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -4208,7 +4227,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
@@ -4244,7 +4263,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -4397,13 +4416,13 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -4415,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -4506,7 +4525,7 @@
         <v>434</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
@@ -4535,7 +4554,7 @@
         <v>434</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
@@ -4567,10 +4586,10 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>429</v>
@@ -5077,18 +5096,19 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A109684-ACDF-461B-AA20-3C369EADC315}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5151,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>6</v>
@@ -5285,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>20</v>
@@ -6014,7 +6034,7 @@
         <v>24</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
@@ -6046,25 +6066,25 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>647</v>
-      </c>
-      <c r="E35" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>649</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>27</v>
@@ -6073,25 +6093,25 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>651</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="E36" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>653</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>27</v>
@@ -6100,25 +6120,25 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>659</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="E37" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>661</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>27</v>
@@ -6127,13 +6147,13 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>670</v>
-      </c>
       <c r="D38" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E38" s="12">
         <v>-1</v>
@@ -6145,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>27</v>
@@ -6154,25 +6174,25 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="E39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>673</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="E39" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>1</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>675</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>27</v>
@@ -6181,25 +6201,25 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="E40" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>676</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="E40" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>1</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>678</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>27</v>
@@ -6207,25 +6227,25 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>682</v>
-      </c>
       <c r="D41" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="E41" s="12">
+        <v>10</v>
+      </c>
+      <c r="F41" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>681</v>
-      </c>
-      <c r="E41" s="12">
-        <v>15</v>
-      </c>
-      <c r="F41" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>683</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>27</v>
@@ -6239,10 +6259,10 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="12">
@@ -6255,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>27</v>
@@ -6269,13 +6289,13 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="D43" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E43" s="12">
         <v>-1</v>
@@ -6287,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>27</v>
@@ -6296,10 +6316,10 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E44" s="17">
         <v>0.2</v>
@@ -6311,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>27</v>
@@ -6325,25 +6345,25 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="E45" s="12">
+        <v>5</v>
+      </c>
+      <c r="F45" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>690</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="E45" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="F45" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>692</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>27</v>
@@ -6357,14 +6377,14 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>701</v>
-      </c>
       <c r="E46" s="12">
         <v>-1</v>
       </c>
@@ -6375,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>27</v>
@@ -6383,31 +6403,31 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>702</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="E47" s="12">
-        <v>4</v>
-      </c>
-      <c r="F47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>704</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
@@ -6418,13 +6438,13 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E48" s="12">
         <v>-1</v>
@@ -6436,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>27</v>
@@ -6450,25 +6470,25 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C49" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="E49" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>715</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="E49" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="12">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>718</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>27</v>
@@ -6482,14 +6502,14 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>723</v>
-      </c>
       <c r="E50" s="12">
         <v>-1</v>
       </c>
@@ -6500,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>27</v>
@@ -6977,10 +6997,10 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E70" s="12">
         <v>2</v>
@@ -6992,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>27</v>
@@ -7001,13 +7021,13 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E71" s="12">
         <v>0.5</v>
@@ -7019,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
@@ -7036,13 +7056,13 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E72" s="12">
         <v>-1</v>
@@ -7060,7 +7080,7 @@
         <v>24</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
@@ -7070,251 +7090,340 @@
         <v>24</v>
       </c>
       <c r="J73" s="28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B75" s="17"/>
+      <c r="D75" s="14"/>
+      <c r="J75" s="28"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B76" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D77" s="14"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="J77" s="28" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" s="17"/>
-      <c r="D74" s="14"/>
-      <c r="J74" s="28"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="E75" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F75" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="12">
-        <v>1</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="I75" s="17" t="s">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B78" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E78" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="J78" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="J75" s="28" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D76" s="14"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E77" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F77" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="12">
-        <v>1</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="J77" s="28" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="17" t="s">
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="E78" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F78" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
-      <c r="H78" s="17" t="s">
+      <c r="E79" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="I78" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" s="28" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" s="17"/>
-      <c r="D79" s="14"/>
       <c r="I79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="E80" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F80" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="12">
-        <v>1</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>566</v>
-      </c>
+      <c r="B80" s="17"/>
+      <c r="D80" s="14"/>
       <c r="I80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J80" s="28" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="17"/>
-      <c r="D81" s="14"/>
+      <c r="B81" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E81" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>566</v>
+      </c>
       <c r="I81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E82" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F82" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="12">
-        <v>1</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>665</v>
-      </c>
+      <c r="B82" s="17"/>
+      <c r="D82" s="14"/>
       <c r="I82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="17"/>
+      <c r="B83" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="E83" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>1</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>566</v>
+      </c>
       <c r="I83" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="E84" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F84" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" s="12">
-        <v>1</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>566</v>
-      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="14"/>
       <c r="I84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="B85" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E85" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>1</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>663</v>
+      </c>
       <c r="I85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="17"/>
+      <c r="I86" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E87" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <v>1</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="28" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="I88" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
+      <c r="F89" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>1</v>
+      </c>
+      <c r="H89" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="E86" s="12">
-        <v>1</v>
-      </c>
-      <c r="F86" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" s="12">
-        <v>1</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J86" s="14"/>
+      <c r="I89" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="E91" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F91" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
+        <v>3</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7341,7 +7450,7 @@
   <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B62 B64:B70 B72:B74">
+  <conditionalFormatting sqref="B59:B62 B64:B70 B72:B75">
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H39 H43">
@@ -7356,14 +7465,14 @@
   <conditionalFormatting sqref="H55">
     <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H69 H73:H74">
+  <conditionalFormatting sqref="H59:H69 H73:H75">
     <cfRule type="duplicateValues" dxfId="2" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="H89 H91">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7437,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -7571,7 +7680,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
